--- a/resultados/Planilla_Norma_102029.xlsx
+++ b/resultados/Planilla_Norma_102029.xlsx
@@ -1853,6 +1853,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2036,11 +2037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263356800"/>
-        <c:axId val="263358336"/>
+        <c:axId val="272076800"/>
+        <c:axId val="272078336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263356800"/>
+        <c:axId val="272076800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2068,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263358336"/>
+        <c:crossAx val="272078336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2075,7 +2076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263358336"/>
+        <c:axId val="272078336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,13 +2104,14 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263356800"/>
+        <c:crossAx val="272076800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2195,6 +2197,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2363,11 +2366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263941504"/>
-        <c:axId val="263955584"/>
+        <c:axId val="272653312"/>
+        <c:axId val="272667392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263941504"/>
+        <c:axId val="272653312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2397,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263955584"/>
+        <c:crossAx val="272667392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2402,7 +2405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263955584"/>
+        <c:axId val="272667392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,13 +2433,14 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263941504"/>
+        <c:crossAx val="272653312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2522,6 +2526,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2717,11 +2722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="263973504"/>
-        <c:axId val="263975296"/>
+        <c:axId val="272685312"/>
+        <c:axId val="272695296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="263973504"/>
+        <c:axId val="272685312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2753,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263975296"/>
+        <c:crossAx val="272695296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2756,7 +2761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263975296"/>
+        <c:axId val="272695296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,13 +2789,14 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263973504"/>
+        <c:crossAx val="272685312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2881,6 +2887,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2924,21 +2931,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.37</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2979,21 +2971,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3034,21 +3011,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>-0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3064,11 +3026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="264001408"/>
-        <c:axId val="264002944"/>
+        <c:axId val="272721408"/>
+        <c:axId val="272722944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264001408"/>
+        <c:axId val="272721408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,7 +3057,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264002944"/>
+        <c:crossAx val="272722944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3103,7 +3065,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264002944"/>
+        <c:axId val="272722944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,13 +3093,14 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264001408"/>
+        <c:crossAx val="272721408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3276,18 +3239,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3325,18 +3276,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.42</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3374,18 +3313,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3401,11 +3328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="264123520"/>
-        <c:axId val="264125056"/>
+        <c:axId val="272836864"/>
+        <c:axId val="272846848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264123520"/>
+        <c:axId val="272836864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3359,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264125056"/>
+        <c:crossAx val="272846848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3440,7 +3367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264125056"/>
+        <c:axId val="272846848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3468,7 +3395,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264123520"/>
+        <c:crossAx val="272836864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3606,24 +3533,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3667,18 +3576,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3722,21 +3619,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.23</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3752,11 +3634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="264173440"/>
-        <c:axId val="264174976"/>
+        <c:axId val="272881536"/>
+        <c:axId val="272883072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264173440"/>
+        <c:axId val="272881536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +3665,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264174976"/>
+        <c:crossAx val="272883072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3791,7 +3673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264174976"/>
+        <c:axId val="272883072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3701,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264173440"/>
+        <c:crossAx val="272881536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5910,19 +5792,13 @@
         <v>10</v>
       </c>
       <c r="H46" s="41"/>
-      <c r="I46" s="70">
-        <v>-0.09</v>
-      </c>
+      <c r="I46" s="70"/>
       <c r="J46" s="71"/>
       <c r="K46" s="63"/>
-      <c r="L46" s="40">
-        <v>0.06</v>
-      </c>
+      <c r="L46" s="40"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
-      <c r="O46" s="40">
-        <v>-0.06</v>
-      </c>
+      <c r="O46" s="40"/>
       <c r="P46" s="40"/>
       <c r="Q46" s="41"/>
       <c r="R46" s="39">
@@ -5951,19 +5827,13 @@
         <v>5</v>
       </c>
       <c r="H47" s="41"/>
-      <c r="I47" s="70">
-        <v>0.04</v>
-      </c>
+      <c r="I47" s="70"/>
       <c r="J47" s="71"/>
       <c r="K47" s="63"/>
-      <c r="L47" s="40">
-        <v>0.11</v>
-      </c>
+      <c r="L47" s="40"/>
       <c r="M47" s="40"/>
       <c r="N47" s="40"/>
-      <c r="O47" s="40">
-        <v>0.04</v>
-      </c>
+      <c r="O47" s="40"/>
       <c r="P47" s="40"/>
       <c r="Q47" s="41"/>
       <c r="R47" s="39">
@@ -5990,19 +5860,13 @@
         <v>2.5</v>
       </c>
       <c r="H48" s="41"/>
-      <c r="I48" s="70">
-        <v>0.05</v>
-      </c>
+      <c r="I48" s="70"/>
       <c r="J48" s="71"/>
       <c r="K48" s="63"/>
-      <c r="L48" s="40">
-        <v>0.12</v>
-      </c>
+      <c r="L48" s="40"/>
       <c r="M48" s="40"/>
       <c r="N48" s="40"/>
-      <c r="O48" s="40">
-        <v>0.1</v>
-      </c>
+      <c r="O48" s="40"/>
       <c r="P48" s="40"/>
       <c r="Q48" s="41"/>
       <c r="R48" s="39">
@@ -6025,19 +5889,13 @@
         <v>0.5</v>
       </c>
       <c r="H49" s="41"/>
-      <c r="I49" s="39">
-        <v>0.21</v>
-      </c>
+      <c r="I49" s="39"/>
       <c r="J49" s="40"/>
       <c r="K49" s="40"/>
-      <c r="L49" s="40">
-        <v>0.27</v>
-      </c>
+      <c r="L49" s="40"/>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
-      <c r="O49" s="40">
-        <v>0.24</v>
-      </c>
+      <c r="O49" s="40"/>
       <c r="P49" s="40"/>
       <c r="Q49" s="41"/>
       <c r="R49" s="39">
@@ -6060,19 +5918,13 @@
         <v>0.25</v>
       </c>
       <c r="H50" s="57"/>
-      <c r="I50" s="62">
-        <v>0.37</v>
-      </c>
+      <c r="I50" s="62"/>
       <c r="J50" s="56"/>
       <c r="K50" s="56"/>
-      <c r="L50" s="56">
-        <v>0.42</v>
-      </c>
+      <c r="L50" s="56"/>
       <c r="M50" s="56"/>
       <c r="N50" s="56"/>
-      <c r="O50" s="56">
-        <v>0.42</v>
-      </c>
+      <c r="O50" s="56"/>
       <c r="P50" s="56"/>
       <c r="Q50" s="57"/>
       <c r="R50" s="62">
@@ -6095,19 +5947,13 @@
         <v>10</v>
       </c>
       <c r="H51" s="41"/>
-      <c r="I51" s="39">
-        <v>-0.02</v>
-      </c>
+      <c r="I51" s="39"/>
       <c r="J51" s="40"/>
       <c r="K51" s="40"/>
-      <c r="L51" s="40">
-        <v>0.12</v>
-      </c>
+      <c r="L51" s="40"/>
       <c r="M51" s="40"/>
       <c r="N51" s="40"/>
-      <c r="O51" s="40">
-        <v>0.15</v>
-      </c>
+      <c r="O51" s="40"/>
       <c r="P51" s="40"/>
       <c r="Q51" s="41"/>
       <c r="R51" s="39">
@@ -6132,19 +5978,13 @@
         <v>5</v>
       </c>
       <c r="H52" s="41"/>
-      <c r="I52" s="39">
-        <v>-0.01</v>
-      </c>
+      <c r="I52" s="39"/>
       <c r="J52" s="40"/>
       <c r="K52" s="40"/>
-      <c r="L52" s="40">
-        <v>0.12</v>
-      </c>
+      <c r="L52" s="40"/>
       <c r="M52" s="40"/>
       <c r="N52" s="40"/>
-      <c r="O52" s="40">
-        <v>0.16</v>
-      </c>
+      <c r="O52" s="40"/>
       <c r="P52" s="40"/>
       <c r="Q52" s="41"/>
       <c r="R52" s="39">
@@ -6167,19 +6007,13 @@
         <v>2.5</v>
       </c>
       <c r="H53" s="41"/>
-      <c r="I53" s="39">
-        <v>-0.02</v>
-      </c>
+      <c r="I53" s="39"/>
       <c r="J53" s="40"/>
       <c r="K53" s="40"/>
-      <c r="L53" s="40">
-        <v>0.17</v>
-      </c>
+      <c r="L53" s="40"/>
       <c r="M53" s="40"/>
       <c r="N53" s="40"/>
-      <c r="O53" s="40">
-        <v>0.18</v>
-      </c>
+      <c r="O53" s="40"/>
       <c r="P53" s="40"/>
       <c r="Q53" s="41"/>
       <c r="R53" s="39">
@@ -6202,19 +6036,13 @@
         <v>0.5</v>
       </c>
       <c r="H54" s="41"/>
-      <c r="I54" s="62">
-        <v>0.2</v>
-      </c>
+      <c r="I54" s="62"/>
       <c r="J54" s="56"/>
       <c r="K54" s="56"/>
-      <c r="L54" s="56">
-        <v>0.42</v>
-      </c>
+      <c r="L54" s="56"/>
       <c r="M54" s="56"/>
       <c r="N54" s="56"/>
-      <c r="O54" s="56">
-        <v>0.4</v>
-      </c>
+      <c r="O54" s="56"/>
       <c r="P54" s="56"/>
       <c r="Q54" s="57"/>
       <c r="R54" s="62">
@@ -6287,9 +6115,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="41"/>
-      <c r="I57" s="39">
-        <v>0</v>
-      </c>
+      <c r="I57" s="39"/>
       <c r="J57" s="40"/>
       <c r="K57" s="40"/>
       <c r="L57" s="40"/>
@@ -6320,9 +6146,7 @@
         <v>5</v>
       </c>
       <c r="H58" s="41"/>
-      <c r="I58" s="39">
-        <v>0.04</v>
-      </c>
+      <c r="I58" s="39"/>
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
       <c r="L58" s="40"/>
@@ -6351,9 +6175,7 @@
         <v>2.5</v>
       </c>
       <c r="H59" s="41"/>
-      <c r="I59" s="39">
-        <v>0.06</v>
-      </c>
+      <c r="I59" s="39"/>
       <c r="J59" s="40"/>
       <c r="K59" s="40"/>
       <c r="L59" s="40"/>
@@ -6382,9 +6204,7 @@
         <v>0.5</v>
       </c>
       <c r="H60" s="41"/>
-      <c r="I60" s="39">
-        <v>0.12</v>
-      </c>
+      <c r="I60" s="39"/>
       <c r="J60" s="40"/>
       <c r="K60" s="40"/>
       <c r="L60" s="40"/>
@@ -6413,9 +6233,7 @@
         <v>0.25</v>
       </c>
       <c r="H61" s="66"/>
-      <c r="I61" s="39">
-        <v>0.18</v>
-      </c>
+      <c r="I61" s="39"/>
       <c r="J61" s="40"/>
       <c r="K61" s="40"/>
       <c r="L61" s="40"/>
@@ -6444,9 +6262,7 @@
         <v>0.1</v>
       </c>
       <c r="H62" s="57"/>
-      <c r="I62" s="62">
-        <v>0.33</v>
-      </c>
+      <c r="I62" s="62"/>
       <c r="J62" s="56"/>
       <c r="K62" s="56"/>
       <c r="L62" s="56"/>
@@ -6475,9 +6291,7 @@
         <v>10</v>
       </c>
       <c r="H63" s="41"/>
-      <c r="I63" s="63">
-        <v>0.13</v>
-      </c>
+      <c r="I63" s="63"/>
       <c r="J63" s="40"/>
       <c r="K63" s="40"/>
       <c r="L63" s="40"/>
@@ -6508,9 +6322,7 @@
         <v>5</v>
       </c>
       <c r="H64" s="41"/>
-      <c r="I64" s="63">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="I64" s="63"/>
       <c r="J64" s="40"/>
       <c r="K64" s="40"/>
       <c r="L64" s="40"/>
@@ -6539,9 +6351,7 @@
         <v>2.5</v>
       </c>
       <c r="H65" s="41"/>
-      <c r="I65" s="63">
-        <v>0.06</v>
-      </c>
+      <c r="I65" s="63"/>
       <c r="J65" s="40"/>
       <c r="K65" s="40"/>
       <c r="L65" s="40"/>
@@ -6570,9 +6380,7 @@
         <v>0.5</v>
       </c>
       <c r="H66" s="57"/>
-      <c r="I66" s="58">
-        <v>0.16</v>
-      </c>
+      <c r="I66" s="58"/>
       <c r="J66" s="56"/>
       <c r="K66" s="56"/>
       <c r="L66" s="56"/>
@@ -6601,9 +6409,7 @@
         <v>10</v>
       </c>
       <c r="H67" s="41"/>
-      <c r="I67" s="39">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="I67" s="39"/>
       <c r="J67" s="40"/>
       <c r="K67" s="40"/>
       <c r="L67" s="40"/>
@@ -6634,9 +6440,7 @@
         <v>5</v>
       </c>
       <c r="H68" s="41"/>
-      <c r="I68" s="39">
-        <v>0.06</v>
-      </c>
+      <c r="I68" s="39"/>
       <c r="J68" s="40"/>
       <c r="K68" s="40"/>
       <c r="L68" s="40"/>
@@ -6665,9 +6469,7 @@
         <v>2.5</v>
       </c>
       <c r="H69" s="41"/>
-      <c r="I69" s="39">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="I69" s="39"/>
       <c r="J69" s="40"/>
       <c r="K69" s="40"/>
       <c r="L69" s="40"/>
@@ -6696,9 +6498,7 @@
         <v>0.5</v>
       </c>
       <c r="H70" s="41"/>
-      <c r="I70" s="39">
-        <v>0.13</v>
-      </c>
+      <c r="I70" s="39"/>
       <c r="J70" s="40"/>
       <c r="K70" s="40"/>
       <c r="L70" s="40"/>
@@ -6727,9 +6527,7 @@
         <v>0.25</v>
       </c>
       <c r="H71" s="61"/>
-      <c r="I71" s="62">
-        <v>0.23</v>
-      </c>
+      <c r="I71" s="62"/>
       <c r="J71" s="56"/>
       <c r="K71" s="56"/>
       <c r="L71" s="56"/>
